--- a/assets/temp/Bendungan Kuwil_KLIM101_WIND SPEED_2024-05.xlsx
+++ b/assets/temp/Bendungan Kuwil_KLIM101_WIND SPEED_2024-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>tanggal</t>
   </si>
@@ -29,37 +29,79 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>data_mentah</t>
-  </si>
-  <si>
-    <t>avg_data_primer</t>
-  </si>
-  <si>
-    <t>Data Mentah</t>
-  </si>
-  <si>
-    <t>Wind Speed (m/s)</t>
-  </si>
-  <si>
-    <t>Perubahan Wind Speed (m/s)</t>
+    <t>P - Wind Speed (mps)</t>
+  </si>
+  <si>
+    <t>Wind Speed (mps)</t>
+  </si>
+  <si>
+    <t>Perubahan Wind Speed (mps)</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>KLIM101</t>
+  </si>
+  <si>
+    <t>WIND SPEED</t>
+  </si>
+  <si>
+    <t>OTOMATIS</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>Naik (+6.000)</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-05-26</t>
+  </si>
+  <si>
+    <t>Naik (+3.360)</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>Naik (+1.333)</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>Naik (+3.563)</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>Naik (+8.292)</t>
+  </si>
+  <si>
     <t>2024-05-19</t>
   </si>
   <si>
-    <t>KLIM101</t>
-  </si>
-  <si>
-    <t>WIND SPEED</t>
-  </si>
-  <si>
-    <t>OTOMATIS</t>
-  </si>
-  <si>
-    <t>Wind Speed : 0.000 m/s</t>
+    <t>Naik (+1.667)</t>
   </si>
   <si>
     <t>2024-05-18</t>
@@ -68,9 +110,6 @@
     <t>2024-05-17</t>
   </si>
   <si>
-    <t>Wind Speed : 0.120 m/s</t>
-  </si>
-  <si>
     <t>Naik (+0.120)</t>
   </si>
   <si>
@@ -80,16 +119,10 @@
     <t>2024-05-15</t>
   </si>
   <si>
-    <t>Wind Speed : 0.292 m/s</t>
-  </si>
-  <si>
     <t>Naik (+0.292)</t>
   </si>
   <si>
     <t>2024-05-14</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
   </si>
 </sst>
 </file>
@@ -428,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,235 +494,447 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>3.36</v>
+      </c>
+      <c r="F5">
+        <v>3.36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>1.333</v>
+      </c>
+      <c r="F8">
+        <v>1.333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3.563</v>
+      </c>
+      <c r="F9">
+        <v>3.563</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8.292</v>
+      </c>
+      <c r="F12">
+        <v>8.292</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1.667</v>
+      </c>
+      <c r="F13">
+        <v>1.667</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0.12</v>
+      </c>
+      <c r="F15">
+        <v>0.12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.292</v>
+      </c>
+      <c r="F17">
+        <v>0.292</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>0.12</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>17</v>
-      </c>
-      <c r="H4">
-        <v>0.12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0.29166666666667</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>0.292</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
